--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanreyes/Documents/Personales/OBS/TFG/TFG_OBS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria\Programa OBS\21. Trabajo Final de Máster\Tesis Final\TFG_OBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>Cargo</t>
   </si>
@@ -427,19 +427,28 @@
   <si>
     <t>Medidor eléctrico tres fases para cable cuádruples, requisitos de protección fijados por la protección IP53 del IEC60529: terminales de conexión están hechas de latón niquelado con carácteristicas de alta fuerza mecánica, buena conductividad y resistencia a la corroción, bloque terminal modelado por inyección por baquelita resistente al calor y fuego, eje del rotor esta torneado por aleación de aluminio de alta densidad.</t>
   </si>
+  <si>
+    <t>Copias por minuto 20. Copias por mes 10.000. Alimentador automático de originales. Velocidad impresora 16 ppm. Alimentación de papel: 2 vías: 1 x 250 hojas, 1 x 50 hojas (bay pass). Multicopiado 1 a 99 tamaño original 8 1/2 x 14 zoom 25% al 400%. compatible con windows vista, 8 y 10.</t>
+  </si>
+  <si>
+    <t>Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Camioneta Luv Dimax 4x4 modelo 2009 con conductor servicio L - D 7:00 am - 10: pm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$USD]\ #,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,14 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -520,6 +521,26 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Abadi MT Condensed Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Abadi MT Condensed Light"/>
     </font>
   </fonts>
@@ -869,220 +890,226 @@
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -1145,6 +1172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1419,14 +1449,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>1178426900</v>
       </c>
@@ -1448,212 +1478,233 @@
   <dimension ref="C1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="34"/>
+    <col min="7" max="8" width="10.875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="52">
-        <v>1178426900</v>
-      </c>
-      <c r="D1" s="29">
-        <v>5000000</v>
-      </c>
+    <row r="1" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C1" s="1">
+        <v>6672900</v>
+      </c>
+      <c r="D1" s="18"/>
       <c r="F1" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="14">
         <f>C1/F1</f>
-        <v>394402.35216943116</v>
-      </c>
-      <c r="H1" s="25">
+        <v>2233.3226233985301</v>
+      </c>
+      <c r="H1" s="14">
         <f>D1/G1</f>
-        <v>12.677409179983925</v>
-      </c>
-    </row>
-    <row r="2" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="52">
-        <v>412449415</v>
-      </c>
-      <c r="D2" s="30">
-        <v>10800000</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C2" s="1">
+        <v>9674400</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="F2" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G2" s="25">
-        <f t="shared" ref="G2:G12" si="0">C2/F2</f>
-        <v>138040.8232593009</v>
-      </c>
-      <c r="H2" s="25">
-        <f t="shared" ref="H2:H12" si="1">D2/G2</f>
-        <v>78.237725225043661</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="52">
-        <v>117842690</v>
-      </c>
-      <c r="D3" s="29">
-        <v>4400000</v>
-      </c>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G13" si="0">C2/F2</f>
+        <v>3237.8810393991726</v>
+      </c>
+      <c r="H2" s="14">
+        <f t="shared" ref="H2:H13" si="1">D2/G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C3" s="1">
+        <v>1858320</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="F3" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>39440.235216943118</v>
-      </c>
-      <c r="H3" s="25">
+        <v>621.95268886300653</v>
+      </c>
+      <c r="H3" s="14">
         <f t="shared" si="1"/>
-        <v>111.56120078385855</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="52"/>
-      <c r="D4" s="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C4" s="1">
+        <v>1478000</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="F4" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
+        <v>494.66511372612018</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="52"/>
-      <c r="D5" s="6"/>
+    </row>
+    <row r="5" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C5" s="1">
+        <v>1417520</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="F5" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
+        <v>474.42333694793632</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="52"/>
-      <c r="D6" s="5"/>
+    </row>
+    <row r="6" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C6" s="1">
+        <v>116058000</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="F6" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
+        <v>38842.925418691513</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
-      <c r="D7" s="6"/>
+    </row>
+    <row r="7" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C7" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="F7" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
+        <v>107099.34803271884</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
-      <c r="D8" s="5"/>
+    </row>
+    <row r="8" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C8" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="F8" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
+        <v>1338.7418504089856</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
-      <c r="D9" s="6"/>
+    </row>
+    <row r="9" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C9" s="1">
+        <v>680000</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="F9" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
+        <v>227.58611456952755</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+    </row>
+    <row r="10" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C10" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="F10" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
+        <v>769.77656398516672</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
+    </row>
+    <row r="11" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C11" s="1">
+        <v>585000</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="F11" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
+        <v>195.79099562231414</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
+    </row>
+    <row r="12" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C12" s="1">
+        <v>889000</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="F12" s="2">
         <v>2987.88</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
+        <v>297.53537625339703</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="25" t="e">
+    </row>
+    <row r="13" spans="3:8" ht="16.5" thickBot="1">
+      <c r="C13" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2987.88</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>1506.0845817101088</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25" t="e">
-        <f>SUM(H1:H12)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1666,1175 +1717,1186 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:M51"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="11">
+      <c r="B2" s="56"/>
+      <c r="C2" s="9">
         <v>12</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="14">
         <v>1673</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="14">
         <f>E2*C2</f>
         <v>20076</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="13">
+      <c r="B3" s="49"/>
+      <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="14">
         <v>1506</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F13" si="0">E3*C3</f>
         <v>18072</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="23">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="14">
         <v>120486.7665368087</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="11">
+      <c r="B4" s="49"/>
+      <c r="C4" s="9">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="14">
         <v>1506</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>18072</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="23">
         <v>2</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="14">
         <v>11713.991191078623</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13">
+      <c r="B5" s="49"/>
+      <c r="C5" s="11">
         <v>12</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="14">
         <v>837</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>10044</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="23">
         <v>3</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="14">
         <v>4016.2255512269567</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="11">
+      <c r="B6" s="49"/>
+      <c r="C6" s="9">
         <v>12</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="14">
         <v>669</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>8028</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="23">
         <v>4</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="14">
         <v>1673.4273130112319</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13">
+      <c r="B7" s="49"/>
+      <c r="C7" s="11">
         <v>12</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="14">
         <v>837</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>10044</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="23">
         <v>5</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="14">
         <v>10040.563878067393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="11">
+      <c r="B8" s="49"/>
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="14">
         <v>435</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>2610</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="23">
         <v>6</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="14">
         <v>10040.563878067393</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="13">
+      <c r="B9" s="49"/>
+      <c r="C9" s="11">
         <v>12</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="14">
         <v>1071</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>12852</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="23">
         <v>7</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="14">
         <v>1673.4273130112319</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="11">
+      <c r="B10" s="49"/>
+      <c r="C10" s="9">
         <v>12</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="14">
         <v>435</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>5220</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="27">
         <v>8</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="28">
         <v>1673.4273130112319</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="13">
+      <c r="B11" s="49"/>
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="14">
         <v>954</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>3816</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="30">
         <f>SUM(K3:K10)</f>
         <v>161318.39297428276</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="11">
+      <c r="B12" s="49"/>
+      <c r="C12" s="9">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="14">
         <v>535</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>6420</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="13">
+      <c r="B13" s="49"/>
+      <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="14">
         <v>435</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>5220</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="15">
         <f>SUM(F2:F13)</f>
         <v>120474</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="48" t="s">
+    <row r="16" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="32">
         <v>2017</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="32">
         <v>3</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="14">
         <v>1506084.5817101088</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="14">
         <v>736.30801772494203</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="14">
         <f>B18*C18</f>
         <v>6626.7721595244784</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="32">
         <v>2018</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="32">
         <v>4</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="14">
         <v>2008112.7756134784</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>9</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="14">
         <v>401.6225551226957</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="14">
         <f t="shared" ref="D19:D20" si="1">B19*C19</f>
         <v>3614.6029961042614</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="32">
         <v>2019</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="32">
         <v>4</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="14">
         <v>2008112.7756134784</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="14">
         <v>736.30801772494203</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>1472.6160354498841</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="32">
         <v>2020</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="32">
         <v>4</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="14">
         <v>2008112.7756134784</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="26">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="15">
         <f>SUM(D18:D20)</f>
         <v>11713.991191078623</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="32">
         <v>2021</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="32">
         <v>4</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="14">
         <v>2008112.7756134784</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="23" spans="1:11" ht="16.5" thickBot="1"/>
+    <row r="24" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="14">
         <v>4016.2255512269567</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="14">
         <f>C25*B25</f>
         <v>4016.2255512269567</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="26">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="15">
         <f>SUM(D25)</f>
         <v>4016.2255512269567</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="50" t="s">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="14">
         <v>299509.62890075904</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="50" t="s">
+    <row r="28" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="14">
         <v>232933.546527973</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="14">
         <v>532443.17542873207</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>9</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="14">
         <v>185.93651686145361</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="14">
         <f>B30*C30</f>
         <v>1673.4286517530825</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="26">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="15">
         <f>SUM(D30)</f>
         <v>1673.4286517530825</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="14">
         <v>117139.91191078624</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="50" t="s">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1">
+      <c r="I32" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="14">
         <v>277262.44025864493</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="40" t="s">
+    <row r="33" spans="1:14" ht="16.5" thickBot="1">
+      <c r="I33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="14">
         <v>394402.35216943116</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="14">
         <v>138040.8232593009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>12</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="14">
         <v>251.01409695168479</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>1</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="14">
         <f>B35*C35</f>
         <v>3012.1691634202175</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="14">
         <v>532443.17542873207</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>12</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="14">
         <v>284.48264321190942</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <v>1</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="14">
         <f t="shared" ref="E36:E39" si="2">B36*C36</f>
         <v>3413.7917185429133</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>12</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="14">
         <v>267.74837008179713</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>1</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="14">
         <f t="shared" si="2"/>
         <v>3212.9804409815656</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>1</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="14">
         <v>83.671365650561597</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="11">
         <v>2</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="14">
         <f t="shared" si="2"/>
         <v>83.671365650561597</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-    </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>1</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="14">
         <v>117.13991191078624</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>2</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="14">
         <f t="shared" si="2"/>
         <v>117.13991191078624</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="57" t="s">
+      <c r="J39" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="57" t="s">
+      <c r="K39" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="L39" s="58" t="s">
+      <c r="L39" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M39" s="58"/>
-    </row>
-    <row r="40" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="M39" s="39"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A40" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="26">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="15">
         <f>SUM(E35:E39)</f>
         <v>9839.7526005060445</v>
       </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="58" t="s">
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="58" t="s">
+      <c r="M40" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I41" s="55">
+    <row r="41" spans="1:14">
+      <c r="I41" s="37">
         <v>1</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="55" t="s">
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" thickBot="1">
+      <c r="I42" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J42" s="54" t="s">
+      <c r="J42" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K42" s="54"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-    </row>
-    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="K42" s="36"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="55" t="s">
+      <c r="I43" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="J43" s="54" t="s">
+      <c r="J43" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K43" s="38">
         <f>L43+M43</f>
         <v>16734.27313011232</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L43" s="38">
         <v>11713.991191078623</v>
       </c>
-      <c r="M43" s="56">
+      <c r="M43" s="38">
         <v>5020.2819390336963</v>
       </c>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>12</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="14">
         <v>211.95630346600265</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>1</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="14">
         <f>B44*C44</f>
         <v>2543.4756415920319</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="38">
         <f>L44+M44</f>
         <v>10040.563878067393</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="38">
         <v>7028.3947146471746</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="38">
         <v>3012.1691634202175</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>10</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="14">
         <v>224.2559942166352</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="11">
         <v>2</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="14">
         <f t="shared" ref="E45:E46" si="3">B45*C45</f>
         <v>2242.5599421663519</v>
       </c>
-      <c r="I45" s="55" t="s">
+      <c r="I45" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="54" t="s">
+      <c r="J45" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="56">
+      <c r="K45" s="38">
         <f>L45+M45</f>
         <v>93835.394995782961</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L45" s="38">
         <v>65684.776497048078</v>
       </c>
-      <c r="M45" s="56">
+      <c r="M45" s="38">
         <v>28150.61849873489</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>6</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="14">
         <v>250.99736267855468</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>2</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="14">
         <f t="shared" si="3"/>
         <v>1505.984176071328</v>
       </c>
-      <c r="I46" s="55" t="s">
+      <c r="I46" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="54" t="s">
+      <c r="J46" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="K46" s="56">
+      <c r="K46" s="38">
         <f>L46+M46</f>
         <v>156652.20825468225</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="38">
         <v>109656.54577827758</v>
       </c>
-      <c r="M46" s="56">
+      <c r="M46" s="38">
         <v>46995.662476404672</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A47" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="26">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="15">
         <f>SUM(E44:E46)</f>
         <v>6292.0197598297118</v>
       </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="54" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K47" s="56">
+      <c r="K47" s="38">
         <f>L47+M47</f>
         <v>277262.44025864493</v>
       </c>
-      <c r="L47" s="56">
+      <c r="L47" s="38">
         <f>SUM(L43:L46)</f>
         <v>194083.70818105145</v>
       </c>
-      <c r="M47" s="56">
+      <c r="M47" s="38">
         <f>SUM(M43:M46)</f>
         <v>83178.732077593479</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I48" s="55">
+    <row r="48" spans="1:14">
+      <c r="I48" s="37">
         <v>2</v>
       </c>
-      <c r="J48" s="54" t="s">
+      <c r="J48" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I49" s="55" t="s">
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" thickBot="1">
+      <c r="I49" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J49" s="54" t="s">
+      <c r="J49" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="K49" s="56">
+      <c r="K49" s="38">
         <f>L49+M49</f>
         <v>117139.91191078624</v>
       </c>
-      <c r="L49" s="56">
+      <c r="L49" s="38">
         <v>105425.92071970762</v>
       </c>
-      <c r="M49" s="56">
+      <c r="M49" s="38">
         <v>11713.991191078623</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A50" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="54" t="s">
+      <c r="I50" s="37"/>
+      <c r="J50" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K50" s="56">
+      <c r="K50" s="38">
         <f>L50+M50</f>
         <v>117139.91191078624</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="38">
         <f>SUM(L49)</f>
         <v>105425.92071970762</v>
       </c>
-      <c r="M50" s="56">
+      <c r="M50" s="38">
         <f>SUM(M49)</f>
         <v>11713.991191078623</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>45</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="14">
         <v>20.081127756134784</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="14">
         <f>B51*C51</f>
         <v>903.65074902606523</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="54" t="s">
+      <c r="I51" s="37"/>
+      <c r="J51" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="K51" s="56">
+      <c r="K51" s="38">
         <f>L51+M51</f>
         <v>394402.35216943116</v>
       </c>
-      <c r="L51" s="56">
+      <c r="L51" s="38">
         <f>SUM(L47+L50)</f>
         <v>299509.62890075904</v>
       </c>
-      <c r="M51" s="56">
+      <c r="M51" s="38">
         <f>SUM(M47+M50)</f>
         <v>94892.723268672096</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="11">
         <v>20</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="14">
         <v>15.060845817101088</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="14">
         <f t="shared" ref="D52:D54" si="4">B52*C52</f>
         <v>301.21691634202176</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A53" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>60</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="14">
         <v>3.3468546260224641</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="14">
         <f t="shared" si="4"/>
         <v>200.81127756134785</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+    <row r="54" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A54" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="11">
         <v>32</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="14">
         <v>8.3671365650561604</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="14">
         <f t="shared" si="4"/>
         <v>267.74837008179713</v>
       </c>
-      <c r="K54" s="53"/>
-    </row>
-    <row r="55" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A55" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="26">
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="15">
         <f>SUM(D51:D54)</f>
         <v>1673.4273130112319</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+    <row r="57" spans="1:13" ht="16.5" thickBot="1"/>
+    <row r="58" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A58" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+    <row r="59" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A59" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>12</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="14">
         <v>139</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="14">
         <f>C59*B59</f>
         <v>1668</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="60" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="26">
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="15">
         <f>SUM(D59)</f>
         <v>1668</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A60:C60"/>
@@ -2851,17 +2913,6 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,221 +2920,373 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="K1" s="1">
+        <v>6672900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="60">
+        <v>2233.3226233985301</v>
+      </c>
+      <c r="F2" s="60">
+        <f>D2*E2</f>
+        <v>2233.3226233985301</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9674400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="60">
+        <v>3237.8810393991726</v>
+      </c>
+      <c r="F3" s="60">
+        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
+        <v>3237.8810393991726</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1858320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="48">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="58">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="60">
+        <v>621.95268886300653</v>
+      </c>
+      <c r="F4" s="60">
+        <f t="shared" si="0"/>
+        <v>4975.6215109040522</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1478000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="120">
+      <c r="A5" s="58">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="60">
+        <v>494.66511372612018</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" si="0"/>
+        <v>494.66511372612018</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1417520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60">
+      <c r="A6" s="58">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="58">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="60">
+        <v>474.42333694793632</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" si="0"/>
+        <v>948.84667389587264</v>
+      </c>
+      <c r="K6" s="1">
+        <v>116058000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="58">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="60">
+        <v>47500</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="0"/>
+        <v>47500</v>
+      </c>
+      <c r="K7" s="1">
+        <v>320000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="58">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="60">
+        <v>107099.34803271884</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" si="0"/>
+        <v>107099.34803271884</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="58">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="58">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E9" s="60">
+        <v>1338.7418504089856</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="0"/>
+        <v>10709.934803271884</v>
+      </c>
+      <c r="K9" s="1">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60">
+      <c r="A10" s="58">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="58">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="60">
+        <v>227.58611456952755</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="0"/>
+        <v>455.1722291390551</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24">
+      <c r="A11" s="58">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="58">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="60">
+        <v>769.77656398516672</v>
+      </c>
+      <c r="F11" s="60">
+        <f t="shared" si="0"/>
+        <v>18474.637535644</v>
+      </c>
+      <c r="K11" s="1">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24">
+      <c r="A12" s="58">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="58">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="60">
+        <v>195.79099562231414</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="0"/>
+        <v>391.58199124462828</v>
+      </c>
+      <c r="K12" s="1">
+        <v>889000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24">
+      <c r="A13" s="58">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="58">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="60">
+        <v>297.53537625339703</v>
+      </c>
+      <c r="F13" s="60">
+        <f t="shared" si="0"/>
+        <v>2380.2830100271763</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="84">
+      <c r="A14" s="58">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="58">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="59" t="s">
+      <c r="E14" s="60">
+        <v>1506.0845817101088</v>
+      </c>
+      <c r="F14" s="60">
+        <f t="shared" si="0"/>
+        <v>60243.383268404352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="58"/>
+      <c r="B15" s="61" t="s">
         <v>61</v>
       </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60">
+        <f>SUM(F2:F14)</f>
+        <v>259144.67783177365</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>